--- a/classfiers/greedy/multinomialNB/nearmiss/greedy-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/greedy/multinomialNB/nearmiss/greedy-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="n">
         <v>0.5</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.75</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7395238095238094</v>
+        <v>0.5083333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
   </sheetData>
